--- a/第三反復/分析/非機能要求一覧(反復3).xlsx
+++ b/第三反復/分析/非機能要求一覧(反復3).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0121B45-19F8-45BD-810B-3FA31A1187EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1789C1C-552D-4F54-B6CC-4710D2B74459}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="1350" windowWidth="18285" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非機能要求" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>非機能要求</t>
     <rPh sb="0" eb="1">
@@ -411,6 +411,10 @@
     <t>プレイヤークラスを抽象クラスにする。
 （↑反復2で実施）</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ファイルライタクラスを生成する。
+（↑反復3で実施）</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1096,7 @@
   <dimension ref="B1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1660,7 +1664,7 @@
       <c r="D24" s="7"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:5" ht="33" x14ac:dyDescent="0.15">
       <c r="B25" s="11"/>
       <c r="C25" s="8" t="s">
         <v>27</v>
@@ -1668,7 +1672,9 @@
       <c r="D25" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="8"/>
+      <c r="E25" s="12" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="26" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B26" s="11"/>
@@ -2446,18 +2452,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2479,18 +2485,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>